--- a/oviIN_june29/clustering_v1.2.1/cluster_info.xlsx
+++ b/oviIN_june29/clustering_v1.2.1/cluster_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rw2822/Documents/GitHub/flybrain-clustering/oviIN/clustering_v1.2.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rw2822/Documents/GitHub/flybrain-clustering/oviIN_june29/clustering_v1.2.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46F11878-9F31-634F-B149-41A24794EC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB62D27-5BC6-A244-9934-4860990E347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24840" yWindow="8560" windowWidth="28040" windowHeight="17440" xr2:uid="{D0497B1D-C225-1342-AF5E-9BAEE42920D5}"/>
+    <workbookView xWindow="15360" yWindow="4580" windowWidth="28040" windowHeight="17440" xr2:uid="{D0497B1D-C225-1342-AF5E-9BAEE42920D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +37,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -71,7 +70,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +388,7 @@
   <dimension ref="A1:F4550"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
